--- a/codi_data.xlsx
+++ b/codi_data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\집\Desktop\PythonWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8EED8-2B78-4208-AC66-A456201843BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4328F00-6134-48B0-8471-215550995BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,156 +20,197 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>codi</t>
+  </si>
+  <si>
+    <t>⭐캐주얼 셋업 수트 코디⭐</t>
+  </si>
+  <si>
+    <t>베이지 무드의 셋업코디</t>
+  </si>
+  <si>
+    <t>데일리룩, 데이트룩, 비즈니스룩, 미니멀, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>남자친구의 미니멀 결혼식 하객룩</t>
+  </si>
+  <si>
+    <t>데이트룩, 미니멀, 모던&amp;포멀, 댄디, 유니크</t>
+  </si>
+  <si>
+    <t>💙봄가을 입기좋은 셋업코디💙</t>
+  </si>
+  <si>
+    <t>댄디, 데일리룩, 데이트룩, 미니멀, 모던&amp;포멀, 댄디</t>
+  </si>
+  <si>
+    <t>결혼식 돌잔치 모임 캐주얼룩🤵</t>
+  </si>
+  <si>
+    <t>데이트룩, 비즈니스룩, 캐주얼, 모던&amp;포멀, 댄디, 미니멀</t>
+  </si>
+  <si>
+    <t>뻔하지 않는 결혼식 하객룩 코디</t>
+  </si>
+  <si>
+    <t>데이트룩, 비즈니스룩, 미니멀, 모던&amp;포멀, 댄디</t>
+  </si>
+  <si>
+    <t>톤앤톤 차콜 셋업 코디</t>
+  </si>
+  <si>
+    <t>데일리룩, 비즈니스룩, 미니멀, 모던&amp;포멀, 댄디</t>
+  </si>
+  <si>
+    <t>소개팅 끝판왕 수트 코디</t>
+  </si>
+  <si>
+    <t>데이트룩, 비즈니스룩, 댄디, 모던&amp;포멀, 미니멀, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>결혼식 하객 시선집중 코디</t>
+  </si>
+  <si>
+    <t>모던&amp;포멀, 미니멀, 데이트룩, 데일리룩, 비즈니스룩, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>#연말룩 #하객룩 #결혼식</t>
+  </si>
+  <si>
+    <t>데이트룩, 데일리룩, 캠퍼스룩, 댄디, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>미니멀 블랙 자켓 코디</t>
+  </si>
+  <si>
+    <t>데일리, 결혼식, 20대</t>
+  </si>
+  <si>
+    <t>판매량과 후기로 증명된 수트</t>
+  </si>
+  <si>
+    <t>댄디, 모던&amp;포멀, 데이트룩, 비즈니스룩, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>이런 하객룩이면 다음은 내차례!</t>
+  </si>
+  <si>
+    <t>결혼식, 소개팅, 30대</t>
+  </si>
   <si>
     <t>결혼식 데일리수트</t>
   </si>
   <si>
-    <t>베이지 무드의 셋업코디</t>
+    <t>데이트룩, 비즈니스룩, 댄디, 모던&amp;포멀, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>★데이트,결혼식,졸업식,입학식★</t>
+  </si>
+  <si>
+    <t>모던&amp;포멀, 모던&amp;포멀, 캐주얼, 데이트룩, 데일리룩, 캠퍼스룩</t>
+  </si>
+  <si>
+    <t>셋업의 계절, 결혼식 하객룩♥</t>
+  </si>
+  <si>
+    <t>데이트룩, 데일리룩, 댄디, 모던&amp;포멀, 미니멀, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>여름 결혼식 데일리 수트</t>
+  </si>
+  <si>
+    <t>데이트룩, 비즈니스룩, 댄디, 모던&amp;포멀, 캐주얼, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>♥ 심플한 훈남코디 ♥</t>
+  </si>
+  <si>
+    <t>댄디</t>
+  </si>
+  <si>
+    <t>가을부터 겨울까지 입는 체크수트</t>
+  </si>
+  <si>
+    <t>댄디, 모던&amp;포멀, 미니멀, 데이트룩, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>댄디한 하객룩으로 딱!</t>
+  </si>
+  <si>
+    <t>댄디, 모던&amp;포멀, 미니멀, 모던&amp;포멀</t>
+  </si>
+  <si>
+    <t>여행룩, 데이트룩, 데일리룩, 캠퍼스룩, 캐주얼, 캐주얼</t>
+  </si>
+  <si>
+    <t>남자 여름 결혼식 수트 코디</t>
   </si>
   <si>
     <t>데일리 결혼식 체크 수트</t>
   </si>
   <si>
-    <t>댄디한 하객룩으로 딱!</t>
-  </si>
-  <si>
-    <t>톤앤톤 차콜 셋업 코디</t>
-  </si>
-  <si>
-    <t>소개팅 끝판왕 수트 코디</t>
-  </si>
-  <si>
-    <t>결혼식 하객 시선집중 코디</t>
-  </si>
-  <si>
-    <t>데일리, 결혼식, 20대</t>
-  </si>
-  <si>
-    <t>미니멀 블랙 자켓 코디</t>
-  </si>
-  <si>
-    <t>판매량과 후기로 증명된 수트</t>
-  </si>
-  <si>
-    <t>결혼식, 소개팅, 30대</t>
-  </si>
-  <si>
-    <t>모던&amp;포멀, 미니멀, 데이트룩, 데일리룩, 비즈니스룩, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>댄디, 모던&amp;포멀, 미니멀, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>댄디</t>
-  </si>
-  <si>
-    <t>데이트룩, 비즈니스룩, 댄디, 모던&amp;포멀, 미니멀, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>모던&amp;포멀, 모던&amp;포멀, 캐주얼, 데이트룩, 데일리룩, 캠퍼스룩</t>
-  </si>
-  <si>
     <t>데이트룩, 데일리룩, 비즈니스룩, 댄디, 모던&amp;포멀, 모던&amp;포멀</t>
   </si>
   <si>
-    <t>데이트룩, 데일리룩, 댄디, 모던&amp;포멀, 미니멀, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>데이트룩, 비즈니스룩, 캐주얼, 모던&amp;포멀, 댄디, 미니멀</t>
-  </si>
-  <si>
-    <t>데이트룩, 비즈니스룩, 댄디, 모던&amp;포멀, 캐주얼, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>가을부터 겨울까지 입는 체크수트</t>
-  </si>
-  <si>
-    <t>뻔하지 않는 결혼식 하객룩 코디</t>
-  </si>
-  <si>
-    <t>이런 하객룩이면 다음은 내차례!</t>
-  </si>
-  <si>
-    <t>남자친구의 미니멀 결혼식 하객룩</t>
-  </si>
-  <si>
-    <t>3XL까지 제작되는 사계절 수트</t>
-  </si>
-  <si>
-    <t>여행룩, 데이트룩, 데일리룩, 캠퍼스룩, 캐주얼, 캐주얼</t>
-  </si>
-  <si>
-    <t>댄디, 모던&amp;포멀, 데이트룩, 비즈니스룩, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>데일리룩, 데이트룩, 비즈니스룩, 미니멀, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>댄디, 데일리룩, 데이트룩, 미니멀, 모던&amp;포멀, 댄디</t>
-  </si>
-  <si>
-    <t>데이트룩, 비즈니스룩, 댄디, 모던&amp;포멀, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>codi</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>데이트룩, 캐주얼, 미니멀, 모던&amp;포멀, 댄디</t>
-  </si>
-  <si>
-    <t>데이트룩, 비즈니스룩, 미니멀, 모던&amp;포멀, 댄디</t>
-  </si>
-  <si>
-    <t>데일리룩, 비즈니스룩, 미니멀, 모던&amp;포멀, 댄디</t>
-  </si>
-  <si>
-    <t>데이트룩, 미니멀, 모던&amp;포멀, 댄디, 유니크</t>
-  </si>
-  <si>
-    <t>데이트룩, 데일리룩, 캠퍼스룩, 댄디, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>댄디, 모던&amp;포멀, 미니멀, 데이트룩, 모던&amp;포멀</t>
-  </si>
-  <si>
-    <t>캐주얼 셋업 수트 코디</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄가을 입기좋은 셋업코디</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>남자 여름 결혼식 수트 코디</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>결혼식 돌잔치 모임 캐주얼룩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 심플한 훈남코디 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>연말룩 하객룩 결혼식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이트,결혼식,졸업식,입학식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름 결혼식 데일리 수트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>셋업의 계절, 결혼식 하객룩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 결혼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">결혼식 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">등교 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">테스트 등교 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 소개팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소개팅 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -178,46 +219,109 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 남친룩</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3XL까지 제작되는 사계절 수트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이비색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,18 +340,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -255,12 +359,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -563,190 +666,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -754,10 +900,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -765,10 +911,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -776,10 +922,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -787,70 +933,126 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
+      <c r="B21" t="s">
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
+      <c r="B22" t="s">
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
+      <c r="B23" t="s">
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
+      <c r="B24" t="s">
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
+      <c r="B25" t="s">
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/codi_data.xlsx
+++ b/codi_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\집\Documents\GitHub\Opensource-destiny-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4328F00-6134-48B0-8471-215550995BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA91975-09AC-4DE2-960E-8DF81E246B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>title</t>
   </si>
@@ -669,10 +669,15 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -769,6 +774,9 @@
       <c r="D6" t="s">
         <v>62</v>
       </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -783,6 +791,9 @@
       <c r="D7" t="s">
         <v>65</v>
       </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -797,6 +808,9 @@
       <c r="D8" t="s">
         <v>64</v>
       </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -811,6 +825,9 @@
       <c r="D9" t="s">
         <v>64</v>
       </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -825,6 +842,9 @@
       <c r="D10" t="s">
         <v>66</v>
       </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -839,6 +859,9 @@
       <c r="D11" t="s">
         <v>67</v>
       </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -850,6 +873,9 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -861,6 +887,9 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -872,6 +901,9 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -883,6 +915,9 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -894,8 +929,11 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -905,8 +943,11 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -916,8 +957,11 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -927,8 +971,11 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -938,8 +985,11 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -949,8 +999,11 @@
       <c r="C21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -960,8 +1013,11 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -971,8 +1027,11 @@
       <c r="C23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -982,8 +1041,11 @@
       <c r="C24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -993,8 +1055,11 @@
       <c r="C25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -1002,7 +1067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -1010,7 +1075,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -1018,7 +1083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>55</v>
       </c>
@@ -1026,7 +1091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -1034,7 +1099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>57</v>
       </c>
@@ -1042,7 +1107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>58</v>
       </c>

--- a/codi_data.xlsx
+++ b/codi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\집\Documents\GitHub\Opensource-destiny-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA91975-09AC-4DE2-960E-8DF81E246B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AEC3B-AC5D-44C1-B8F2-8A0CF59E68F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>title</t>
   </si>
@@ -264,10 +264,6 @@
   </si>
   <si>
     <t>하얀색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -669,7 +665,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D10" sqref="D10:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,7 +686,7 @@
         <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -707,7 +703,7 @@
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,7 +720,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,7 +737,7 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -758,7 +754,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -775,7 +771,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -792,7 +788,7 @@
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -809,7 +805,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -826,7 +822,7 @@
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -843,7 +839,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -857,10 +853,10 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -873,8 +869,11 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -887,8 +886,11 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -901,8 +903,11 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -915,8 +920,11 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -929,8 +937,11 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -943,8 +954,11 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -957,8 +971,11 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,8 +988,11 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -985,8 +1005,11 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -999,8 +1022,11 @@
       <c r="C21" t="s">
         <v>40</v>
       </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1013,8 +1039,11 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1027,8 +1056,11 @@
       <c r="C23" t="s">
         <v>41</v>
       </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1041,8 +1073,11 @@
       <c r="C24" t="s">
         <v>34</v>
       </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1056,7 +1091,7 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
